--- a/APPSHEET/EXCEL/habitacion_estado_franco.xlsx
+++ b/APPSHEET/EXCEL/habitacion_estado_franco.xlsx
@@ -188,7 +188,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -215,7 +215,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MANTENIMIE</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -242,7 +242,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/35NORMAL.nombre_imagen.053841.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -253,7 +253,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -280,7 +280,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OCUPADO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -289,7 +289,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">08:40:04</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -298,7 +298,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">160000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -307,7 +307,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/32NORMAL.nombre_imagen.053601.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -318,7 +318,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5</t>
+            <t xml:space="preserve">3</t>
           </r>
         </is>
       </c>
@@ -345,7 +345,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUCIO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -354,7 +354,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">08:38:25</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -372,7 +372,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/34NORMAL.nombre_imagen.053800.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -383,7 +383,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -410,7 +410,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MANTENIMIE</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -437,7 +437,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/35NORMAL.nombre_imagen.053841.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -448,7 +448,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
@@ -475,7 +475,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OCUPADO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -484,7 +484,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">08:40:04</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -493,7 +493,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">160000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -502,7 +502,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/32NORMAL.nombre_imagen.053601.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -513,7 +513,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8</t>
+            <t xml:space="preserve">6</t>
           </r>
         </is>
       </c>
@@ -540,7 +540,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUCIO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -549,7 +549,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">08:38:20</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -567,7 +567,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/34NORMAL.nombre_imagen.053800.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -578,7 +578,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">27</t>
+            <t xml:space="preserve">7</t>
           </r>
         </is>
       </c>
@@ -587,7 +587,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">16</t>
+            <t xml:space="preserve">7</t>
           </r>
         </is>
       </c>
@@ -605,7 +605,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LIBRE</t>
+            <t xml:space="preserve">OCUPADO</t>
           </r>
         </is>
       </c>
@@ -614,7 +614,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">.</t>
+            <t xml:space="preserve">00:30:42</t>
           </r>
         </is>
       </c>
@@ -623,7 +623,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">40000</t>
           </r>
         </is>
       </c>
@@ -632,7 +632,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/31NORMAL.nombre_imagen.052958.png</t>
           </r>
         </is>
       </c>
@@ -643,7 +643,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">17</t>
+            <t xml:space="preserve">8</t>
           </r>
         </is>
       </c>
@@ -652,7 +652,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">17</t>
+            <t xml:space="preserve">8</t>
           </r>
         </is>
       </c>
@@ -670,7 +670,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LIMPIANDO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -679,7 +679,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">08:38:12</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -697,7 +697,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/33NORMAL.nombre_imagen.053652.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -708,7 +708,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">18</t>
+            <t xml:space="preserve">9</t>
           </r>
         </is>
       </c>
@@ -717,7 +717,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">18</t>
+            <t xml:space="preserve">9</t>
           </r>
         </is>
       </c>
@@ -773,7 +773,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">19</t>
+            <t xml:space="preserve">10</t>
           </r>
         </is>
       </c>
@@ -782,7 +782,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">19</t>
+            <t xml:space="preserve">10</t>
           </r>
         </is>
       </c>
@@ -800,7 +800,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OCUPADO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -809,7 +809,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">08:40:04</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -818,7 +818,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">160000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -827,7 +827,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/32NORMAL.nombre_imagen.053601.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -838,7 +838,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">20</t>
+            <t xml:space="preserve">11</t>
           </r>
         </is>
       </c>
@@ -847,7 +847,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">20</t>
+            <t xml:space="preserve">11</t>
           </r>
         </is>
       </c>
@@ -903,7 +903,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21</t>
+            <t xml:space="preserve">12</t>
           </r>
         </is>
       </c>
@@ -912,7 +912,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21</t>
+            <t xml:space="preserve">12</t>
           </r>
         </is>
       </c>
@@ -968,7 +968,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">22</t>
+            <t xml:space="preserve">13</t>
           </r>
         </is>
       </c>
@@ -977,7 +977,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">22</t>
+            <t xml:space="preserve">13</t>
           </r>
         </is>
       </c>
@@ -995,7 +995,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OCUPADO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -1004,7 +1004,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">08:40:04</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -1013,7 +1013,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">120000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1022,7 +1022,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/31NORMAL.nombre_imagen.052958.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -1033,7 +1033,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13</t>
+            <t xml:space="preserve">14</t>
           </r>
         </is>
       </c>
@@ -1042,7 +1042,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">11</t>
+            <t xml:space="preserve">14</t>
           </r>
         </is>
       </c>
@@ -1051,7 +1051,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MOTO</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1060,7 +1060,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OCUPADO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -1069,7 +1069,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">08:40:04</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">105000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1087,7 +1087,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/31NORMAL.nombre_imagen.052958.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -1098,7 +1098,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">14</t>
+            <t xml:space="preserve">15</t>
           </r>
         </is>
       </c>
@@ -1107,7 +1107,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">12</t>
+            <t xml:space="preserve">15</t>
           </r>
         </is>
       </c>
@@ -1116,7 +1116,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MOTO</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1125,7 +1125,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LIMPIANDO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -1134,7 +1134,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">08:38:03</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -1152,7 +1152,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/33NORMAL.nombre_imagen.053652.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -1163,7 +1163,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15</t>
+            <t xml:space="preserve">16</t>
           </r>
         </is>
       </c>
@@ -1172,7 +1172,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13</t>
+            <t xml:space="preserve">16</t>
           </r>
         </is>
       </c>
@@ -1181,7 +1181,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MOTO</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1228,7 +1228,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">23</t>
+            <t xml:space="preserve">17</t>
           </r>
         </is>
       </c>
@@ -1237,7 +1237,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">26</t>
+            <t xml:space="preserve">17</t>
           </r>
         </is>
       </c>
@@ -1246,7 +1246,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MOTO</t>
+            <t xml:space="preserve">SUIT</t>
           </r>
         </is>
       </c>
@@ -1293,7 +1293,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">24</t>
+            <t xml:space="preserve">18</t>
           </r>
         </is>
       </c>
@@ -1302,7 +1302,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">27</t>
+            <t xml:space="preserve">18</t>
           </r>
         </is>
       </c>
@@ -1311,7 +1311,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MOTO</t>
+            <t xml:space="preserve">SUIT</t>
           </r>
         </is>
       </c>
@@ -1358,7 +1358,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25</t>
+            <t xml:space="preserve">19</t>
           </r>
         </is>
       </c>
@@ -1367,7 +1367,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">28</t>
+            <t xml:space="preserve">19</t>
           </r>
         </is>
       </c>
@@ -1376,7 +1376,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MOTO</t>
+            <t xml:space="preserve">SUIT</t>
           </r>
         </is>
       </c>
@@ -1385,7 +1385,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OCUPADO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -1394,7 +1394,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">08:40:04</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -1403,7 +1403,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">105000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1412,7 +1412,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/31NORMAL.nombre_imagen.052958.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -1423,7 +1423,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">26</t>
+            <t xml:space="preserve">20</t>
           </r>
         </is>
       </c>
@@ -1432,7 +1432,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">29</t>
+            <t xml:space="preserve">20</t>
           </r>
         </is>
       </c>
@@ -1441,7 +1441,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MOTO</t>
+            <t xml:space="preserve">SUIT</t>
           </r>
         </is>
       </c>
@@ -1488,7 +1488,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">12</t>
+            <t xml:space="preserve">21</t>
           </r>
         </is>
       </c>
@@ -1497,7 +1497,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">21</t>
           </r>
         </is>
       </c>
@@ -1553,7 +1553,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">11</t>
+            <t xml:space="preserve">22</t>
           </r>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">22</t>
           </r>
         </is>
       </c>
@@ -1571,7 +1571,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1580,7 +1580,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LIMPIANDO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -1589,7 +1589,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">08:38:08</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -1607,7 +1607,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/33NORMAL.nombre_imagen.053652.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -1618,7 +1618,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10</t>
+            <t xml:space="preserve">23</t>
           </r>
         </is>
       </c>
@@ -1627,7 +1627,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">23</t>
           </r>
         </is>
       </c>
@@ -1636,7 +1636,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1645,7 +1645,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OCUPADO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -1654,7 +1654,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">08:40:04</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -1663,7 +1663,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">130000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/31NORMAL.nombre_imagen.052958.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -1683,7 +1683,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9</t>
+            <t xml:space="preserve">24</t>
           </r>
         </is>
       </c>
@@ -1692,7 +1692,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4</t>
+            <t xml:space="preserve">24</t>
           </r>
         </is>
       </c>
@@ -1701,7 +1701,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1710,7 +1710,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MANTENIMIE</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -1737,7 +1737,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/35NORMAL.nombre_imagen.053841.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -1748,7 +1748,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">25</t>
           </r>
         </is>
       </c>
@@ -1757,7 +1757,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5</t>
+            <t xml:space="preserve">25</t>
           </r>
         </is>
       </c>
@@ -1766,7 +1766,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1775,7 +1775,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUCIO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -1784,7 +1784,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">08:37:53</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -1802,7 +1802,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/34NORMAL.nombre_imagen.053800.png</t>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
           </r>
         </is>
       </c>
@@ -1813,7 +1813,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">26</t>
           </r>
         </is>
       </c>
@@ -1822,7 +1822,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6</t>
+            <t xml:space="preserve">26</t>
           </r>
         </is>
       </c>
@@ -1831,7 +1831,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SUIT</t>
+            <t xml:space="preserve">NORMAL</t>
           </r>
         </is>
       </c>
@@ -1840,7 +1840,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">OCUPADO</t>
+            <t xml:space="preserve">LIBRE</t>
           </r>
         </is>
       </c>
@@ -1849,7 +1849,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">08:40:08</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -1858,7 +1858,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">130000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1867,84 +1867,19 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/31NORMAL.nombre_imagen.052958.png</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="28" customHeight="1" ht="20">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">16</t>
-          </r>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">7</t>
-          </r>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">SUIT</t>
-          </r>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">OCUPADO</t>
-          </r>
-        </is>
-      </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">08:40:04</t>
-          </r>
-        </is>
-      </c>
-      <c r="F28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">130000</t>
-          </r>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">franco_db_hab_estado_Images/31NORMAL.nombre_imagen.052958.png</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="29" customHeight="1" ht="575">
-      <c r="A29" s="2" t="inlineStr"/>
-      <c r="B29" s="2" t="inlineStr"/>
-      <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
+            <t xml:space="preserve">franco_db_hab_estado_Images/30NORMAL.nombre_imagen.050601.png</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="28" customHeight="1" ht="575">
+      <c r="A28" s="2" t="inlineStr"/>
+      <c r="B28" s="2" t="inlineStr"/>
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
